--- a/Datos/Database by set/Set with text box/Xlsx sets/Conspiracy Tokens (TCNS).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Conspiracy Tokens (TCNS).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A31"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,210 +444,63 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Construct</t>
+          <t>('Construct', ['Token Artifact Creature — Construct', 'Defender', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Token Artifact Creature — Construct</t>
+          <t>('Dack Fayden Emblem', ['Emblem — Dack', 'Whenever you cast a spell that targets one or more permanents, gain control of those permanents.'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Defender</t>
+          <t>('Demon', ['Token Creature — Demon', 'Flying', '*/*'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1/1</t>
+          <t>('Elephant', ['Token Creature — Elephant', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Dack Fayden Emblem</t>
+          <t>('Ogre', ['Token Creature — Ogre', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Emblem — Dack</t>
+          <t>('Spirit', ['Token Creature — Spirit', 'Flying', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Whenever you cast a spell that targets one or more permanents, gain control of those permanents.</t>
+          <t>('Squirrel', ['Token Creature — Squirrel', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Demon</t>
+          <t>('Wolf', ['Token Creature — Wolf', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Token Creature — Demon</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>*/*</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Elephant</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Token Creature — Elephant</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>3/3</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Ogre</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Token Creature — Ogre</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4/4</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Spirit</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Token Creature — Spirit</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Squirrel</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Token Creature — Squirrel</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Wolf</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Token Creature — Wolf</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Zombie</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Token Creature — Zombie</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>2/2</t>
+          <t>('Zombie', ['Token Creature — Zombie', '2/2'])</t>
         </is>
       </c>
     </row>
